--- a/data/NewCustomer.xlsx
+++ b/data/NewCustomer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14070" windowHeight="8220" tabRatio="541" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="12540" tabRatio="492" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <definedName name="Page_Name">Settings!$A$2:$A$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <oleSize ref="C1:G31"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="105">
   <si>
     <t>Description</t>
   </si>
@@ -111,9 +112,6 @@
     <t>isControlDisplayed</t>
   </si>
   <si>
-    <t>waitForControlVisible</t>
-  </si>
-  <si>
     <t>LogIn_03</t>
   </si>
   <si>
@@ -135,9 +133,6 @@
     <t>TS_008</t>
   </si>
   <si>
-    <t>Firefox</t>
-  </si>
-  <si>
     <t>NewCustomer_Page</t>
   </si>
   <si>
@@ -156,12 +151,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>mngr107888</t>
-  </si>
-  <si>
-    <t>EmEpazy</t>
-  </si>
-  <si>
     <t>Navigate to Login page</t>
   </si>
   <si>
@@ -204,9 +193,6 @@
     <t>//input[@name='name']</t>
   </si>
   <si>
-    <t>Dam Dao</t>
-  </si>
-  <si>
     <t>TS_009</t>
   </si>
   <si>
@@ -243,24 +229,15 @@
     <t>//*[@id='dob']</t>
   </si>
   <si>
-    <t>16/10/1989</t>
-  </si>
-  <si>
     <t>//textarea[@name='addr']</t>
   </si>
   <si>
     <t>Input Address</t>
   </si>
   <si>
-    <t>123 Da nang</t>
-  </si>
-  <si>
     <t>//input[@name='city']</t>
   </si>
   <si>
-    <t>Da nang</t>
-  </si>
-  <si>
     <t>Input City</t>
   </si>
   <si>
@@ -324,19 +301,50 @@
     <t>Close browser</t>
   </si>
   <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>isControlEnabled</t>
+  </si>
+  <si>
+    <t>mngr260207</t>
+  </si>
+  <si>
+    <t>ehehege</t>
+  </si>
+  <si>
+    <t>0987336985</t>
+  </si>
+  <si>
+    <t>635985</t>
+  </si>
+  <si>
+    <t>John Terry</t>
+  </si>
+  <si>
+    <t>01-01-1999</t>
+  </si>
+  <si>
+    <t>209 PO Box</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>123456789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -444,18 +452,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="8"/>
@@ -463,24 +459,45 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,19 +806,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="64.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="64.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -815,65 +832,62 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -887,24 +901,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="53.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="9" width="35.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="38.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -923,36 +937,36 @@
       <c r="F1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>37</v>
+      <c r="G2" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -960,24 +974,24 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="17"/>
       <c r="H3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -986,24 +1000,24 @@
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>44</v>
+      <c r="G4" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1012,19 +1026,19 @@
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>45</v>
+      <c r="G5" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1038,17 +1052,17 @@
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="17"/>
       <c r="H6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1056,23 +1070,23 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="17"/>
       <c r="H7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1080,393 +1094,391 @@
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="17"/>
       <c r="H8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="17"/>
       <c r="H9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>60</v>
+      <c r="G10" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="17"/>
       <c r="H11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>73</v>
+      <c r="G12" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>76</v>
+      <c r="G13" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>78</v>
+      <c r="G15" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>101</v>
+      <c r="G16" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>102</v>
+      <c r="G17" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="16" t="str">
         <f ca="1">"daominhdam" &amp; RANDBETWEEN(100000,5000000) &amp; "@gmail.com"</f>
-        <v>daominhdam2944346@gmail.com</v>
+        <v>daominhdam1896539@gmail.com</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>101</v>
+      <c r="G19" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="17"/>
       <c r="H20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="17"/>
       <c r="H21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="20"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="14"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="1"/>
     </row>
   </sheetData>
@@ -1481,11 +1493,8 @@
       <formula1>Page_Name</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G18" r:id="rId1" display="damdm1234@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1503,110 +1512,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="11" width="68.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="11" width="51.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="11" width="43.44140625" collapsed="true"/>
+    <col min="4" max="16384" style="11" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
-        <f ca="1">RANDBETWEEN(100000,900000)</f>
-        <v>211857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="10">
+        <f ca="1">RANDBETWEEN(10000,99999)</f>
+        <v>93943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="7"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
